--- a/assets/stages/maps/MapEditor/Test1.xlsx
+++ b/assets/stages/maps/MapEditor/Test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A31FF-CD01-4473-BF08-7D84522A30C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D9F29-1549-43C4-ACA9-39D9891F34D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,37 +115,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <left style="thin">
@@ -2230,15 +2200,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:U5 V5:AF5 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 W6:W8 Z6:Z8 H7:P14 N8:Y8 AA8:AF8 S8:S11 V8:V11 Y8:Y11 C8:G16 Q9:AF11 T12:W12 Z12:AF14 Q13:Y14 J15:K18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2252,7 +2222,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11:AE14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2784,15 +2754,11 @@
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>

--- a/assets/stages/maps/MapEditor/Test1.xlsx
+++ b/assets/stages/maps/MapEditor/Test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D9F29-1549-43C4-ACA9-39D9891F34D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1504848-418F-47C9-885F-5BC8CC1E6485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -109,6 +109,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,12 +431,12 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -531,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -629,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -727,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -825,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -923,7 +926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2222,15 +2225,15 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2264,7 +2267,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2298,7 +2301,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2332,7 +2335,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2366,7 +2369,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2400,7 +2403,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2434,7 +2437,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2468,7 +2471,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2502,7 +2505,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2536,7 +2539,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2570,7 +2573,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2601,12 +2604,12 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="3"/>
+      <c r="AE11" s="6"/>
       <c r="AF11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2637,12 +2640,14 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="3"/>
+      <c r="AE12" s="3">
+        <v>4</v>
+      </c>
       <c r="AF12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2673,12 +2678,14 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="3"/>
+      <c r="AE13" s="3">
+        <v>4</v>
+      </c>
       <c r="AF13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2709,12 +2716,14 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="3"/>
+      <c r="AE14" s="3">
+        <v>4</v>
+      </c>
       <c r="AF14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2750,7 +2759,7 @@
       </c>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2788,7 +2797,7 @@
       </c>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2826,7 +2835,7 @@
       </c>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>

--- a/assets/stages/maps/MapEditor/Test1.xlsx
+++ b/assets/stages/maps/MapEditor/Test1.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -3003,4 +3004,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Test1.xlsx
+++ b/assets/stages/maps/MapEditor/Test1.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -3022,4 +3023,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>